--- a/static/excel/samples/department_config.xlsx
+++ b/static/excel/samples/department_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODHOPE ORDU\Documents\excel_converter\static\excel\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CBDDF0-2179-4F00-9FD5-296849AEFF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401ACDAA-EC57-4676-8574-08933A10E857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E4E2A758-F7D2-4D95-B1D3-14046877250E}"/>
   </bookViews>
@@ -253,7 +253,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,15 +326,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -823,7 +823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483A53F1-3062-48F0-8158-EFF2FBCAC9C2}">
   <dimension ref="A2:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
@@ -833,7 +835,7 @@
     <col min="4" max="4" width="10.20703125" customWidth="1"/>
     <col min="5" max="5" width="10.95703125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="7.5390625" customWidth="1"/>
+    <col min="7" max="7" width="7.5390625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
@@ -887,11 +889,11 @@
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="29"/>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31">
+      <c r="E6" s="31"/>
+      <c r="F6" s="30">
         <f>COUNT(Courses[CU])</f>
         <v>0</v>
       </c>
@@ -940,7 +942,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.65">
@@ -962,7 +964,7 @@
       <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A13" s="9"/>
@@ -971,7 +973,7 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A14" s="9"/>
@@ -980,7 +982,7 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.65">
@@ -990,7 +992,6 @@
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="32"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.65">
@@ -1000,1215 +1001,1081 @@
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="32"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="32"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="32"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="32"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="32"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
-      <c r="G40" s="32"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="32"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="32"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="32"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="32"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
-      <c r="G45" s="32"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="32"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="32"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="32"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="32"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
-      <c r="G50" s="32"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="32"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
-      <c r="G52" s="32"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
-      <c r="G53" s="32"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
-      <c r="G54" s="32"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
-      <c r="G55" s="32"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="32"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
-      <c r="G57" s="32"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
-      <c r="G58" s="32"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
-      <c r="G59" s="32"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
-      <c r="G60" s="32"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
-      <c r="G61" s="32"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
-      <c r="G62" s="32"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
-      <c r="G63" s="32"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
-      <c r="G64" s="32"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
-      <c r="G65" s="32"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
-      <c r="G66" s="32"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="32"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
-      <c r="G68" s="32"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
-      <c r="G69" s="32"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
-      <c r="G70" s="32"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
-      <c r="G71" s="32"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
-      <c r="G72" s="32"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
-      <c r="G73" s="32"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
-      <c r="G74" s="32"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
-      <c r="G75" s="32"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
-      <c r="G76" s="32"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
-      <c r="G77" s="32"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="32"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
-      <c r="G79" s="32"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
-      <c r="G80" s="32"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
-      <c r="G81" s="32"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
-      <c r="G82" s="32"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
-      <c r="G83" s="32"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
-      <c r="G84" s="32"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
-      <c r="G85" s="32"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
-      <c r="G86" s="32"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
-      <c r="G87" s="32"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
-      <c r="G88" s="32"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
-      <c r="G89" s="32"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="G90" s="32"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
-      <c r="G91" s="32"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
-      <c r="G92" s="32"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
-      <c r="G93" s="32"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
-      <c r="G94" s="32"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
-      <c r="G95" s="32"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
-      <c r="G96" s="32"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
-      <c r="G97" s="32"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
-      <c r="G98" s="32"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
-      <c r="G99" s="32"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
       <c r="E100" s="28"/>
       <c r="F100" s="28"/>
-      <c r="G100" s="32"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
-      <c r="G101" s="32"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
-      <c r="G102" s="32"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
-      <c r="G103" s="32"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
-      <c r="G104" s="32"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
       <c r="E105" s="28"/>
       <c r="F105" s="28"/>
-      <c r="G105" s="32"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
       <c r="E106" s="28"/>
       <c r="F106" s="28"/>
-      <c r="G106" s="32"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
-      <c r="G107" s="32"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
-      <c r="G108" s="32"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
       <c r="E109" s="28"/>
       <c r="F109" s="28"/>
-      <c r="G109" s="32"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
       <c r="E110" s="28"/>
       <c r="F110" s="28"/>
-      <c r="G110" s="32"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
       <c r="E111" s="28"/>
       <c r="F111" s="28"/>
-      <c r="G111" s="32"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
       <c r="E112" s="28"/>
       <c r="F112" s="28"/>
-      <c r="G112" s="32"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
       <c r="E113" s="28"/>
       <c r="F113" s="28"/>
-      <c r="G113" s="32"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
-      <c r="G114" s="32"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
       <c r="E115" s="28"/>
       <c r="F115" s="28"/>
-      <c r="G115" s="32"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
-      <c r="G116" s="32"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
-      <c r="G117" s="32"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
-      <c r="G118" s="32"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
-      <c r="G119" s="32"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
-      <c r="G120" s="32"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
-      <c r="G121" s="32"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
-      <c r="G122" s="32"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
-      <c r="G123" s="32"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
-      <c r="G124" s="32"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
       <c r="E125" s="28"/>
       <c r="F125" s="28"/>
-      <c r="G125" s="32"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
       <c r="E126" s="28"/>
       <c r="F126" s="28"/>
-      <c r="G126" s="32"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
       <c r="E127" s="28"/>
       <c r="F127" s="28"/>
-      <c r="G127" s="32"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
-      <c r="G128" s="32"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
-      <c r="G129" s="32"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
-      <c r="G130" s="32"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
       <c r="E131" s="28"/>
       <c r="F131" s="28"/>
-      <c r="G131" s="32"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
       <c r="E132" s="28"/>
       <c r="F132" s="28"/>
-      <c r="G132" s="32"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
       <c r="E133" s="28"/>
       <c r="F133" s="28"/>
-      <c r="G133" s="32"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
       <c r="E134" s="28"/>
       <c r="F134" s="28"/>
-      <c r="G134" s="32"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
       <c r="E135" s="28"/>
       <c r="F135" s="28"/>
-      <c r="G135" s="32"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
       <c r="E136" s="28"/>
       <c r="F136" s="28"/>
-      <c r="G136" s="32"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
       <c r="E137" s="28"/>
       <c r="F137" s="28"/>
-      <c r="G137" s="32"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
       <c r="E138" s="28"/>
       <c r="F138" s="28"/>
-      <c r="G138" s="32"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
       <c r="E139" s="28"/>
       <c r="F139" s="28"/>
-      <c r="G139" s="32"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
       <c r="E140" s="28"/>
       <c r="F140" s="28"/>
-      <c r="G140" s="32"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
       <c r="E141" s="28"/>
       <c r="F141" s="28"/>
-      <c r="G141" s="32"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
       <c r="E142" s="28"/>
       <c r="F142" s="28"/>
-      <c r="G142" s="32"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
       <c r="E143" s="28"/>
       <c r="F143" s="28"/>
-      <c r="G143" s="32"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
       <c r="E144" s="28"/>
       <c r="F144" s="28"/>
-      <c r="G144" s="32"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
       <c r="E145" s="28"/>
       <c r="F145" s="28"/>
-      <c r="G145" s="32"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
       <c r="E146" s="28"/>
       <c r="F146" s="28"/>
-      <c r="G146" s="32"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
       <c r="E147" s="28"/>
       <c r="F147" s="28"/>
-      <c r="G147" s="32"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
       <c r="E148" s="28"/>
       <c r="F148" s="28"/>
-      <c r="G148" s="32"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
       <c r="E149" s="28"/>
       <c r="F149" s="28"/>
-      <c r="G149" s="32"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.65">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
       <c r="E150" s="28"/>
       <c r="F150" s="28"/>
-      <c r="G150" s="32"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="eFimN8n3lr+kRyjjclbcuegC+PZk/a2npPNBBovoygBHBbP8CRyw4oStElh1d2fypl5XpXGT3KofGRgDwz2MWA==" saltValue="QgmMyolreXjRaB+meTowQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="D6:E6"/>
   </mergeCells>

--- a/static/excel/samples/department_config.xlsx
+++ b/static/excel/samples/department_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODHOPE ORDU\Documents\excel_converter\static\excel\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401ACDAA-EC57-4676-8574-08933A10E857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AFF5C7-512B-4051-8A10-B9F9A0F62F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E4E2A758-F7D2-4D95-B1D3-14046877250E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Course Code</t>
   </si>
@@ -88,13 +88,16 @@
     <t>Department long:</t>
   </si>
   <si>
-    <t>spreadsheet_template_generic</t>
+    <t>No. of Courses:</t>
   </si>
   <si>
-    <t>summary_template_generic</t>
+    <t>XXX 000.0</t>
   </si>
   <si>
-    <t>No. of Courses:</t>
+    <t>spreadsheet_template</t>
+  </si>
+  <si>
+    <t>summary_template</t>
   </si>
 </sst>
 </file>
@@ -329,12 +332,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -824,7 +827,7 @@
   <dimension ref="A2:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -835,7 +838,7 @@
     <col min="4" max="4" width="10.20703125" customWidth="1"/>
     <col min="5" max="5" width="10.95703125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="7.5390625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="7.5390625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
@@ -889,13 +892,13 @@
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="29"/>
-      <c r="D6" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="31"/>
+      <c r="D6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="34"/>
       <c r="F6" s="30">
         <f>COUNT(Courses[CU])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.65">
@@ -912,7 +915,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -928,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -942,7 +945,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="33"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.65">
@@ -964,16 +967,26 @@
       <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="34"/>
+      <c r="C13" s="27">
+        <v>2</v>
+      </c>
+      <c r="D13" s="27">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A14" s="9"/>
@@ -982,7 +995,7 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.65">
@@ -2075,7 +2088,7 @@
       <c r="F150" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eFimN8n3lr+kRyjjclbcuegC+PZk/a2npPNBBovoygBHBbP8CRyw4oStElh1d2fypl5XpXGT3KofGRgDwz2MWA==" saltValue="QgmMyolreXjRaB+meTowQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="D6:E6"/>
   </mergeCells>

--- a/static/excel/samples/department_config.xlsx
+++ b/static/excel/samples/department_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODHOPE ORDU\Documents\excel_converter\static\excel\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AFF5C7-512B-4051-8A10-B9F9A0F62F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CF4347-7A27-4A32-BAC6-AC6499867F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E4E2A758-F7D2-4D95-B1D3-14046877250E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Course Code</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Elective Pair</t>
-  </si>
-  <si>
     <t>Semester</t>
   </si>
   <si>
@@ -91,13 +88,55 @@
     <t>No. of Courses:</t>
   </si>
   <si>
-    <t>XXX 000.0</t>
-  </si>
-  <si>
     <t>spreadsheet_template</t>
   </si>
   <si>
     <t>summary_template</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>no-extra</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Desciption</t>
+  </si>
+  <si>
+    <t>elective-pair:2</t>
+  </si>
+  <si>
+    <t>elective-pair:N</t>
+  </si>
+  <si>
+    <t>For elective courses. Where N, is the number of electives to be taken that semester</t>
+  </si>
+  <si>
+    <t>For courses that do not allow any additional credit load (carryovers) that semester</t>
+  </si>
+  <si>
+    <t>add-unit</t>
+  </si>
+  <si>
+    <t>For courses that increases the maximum credit load in the semester (eg. Holiday courses)</t>
+  </si>
+  <si>
+    <t>Max CU:</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Semester specific</t>
   </si>
 </sst>
 </file>
@@ -133,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -249,6 +288,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -256,7 +332,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -337,6 +413,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -521,7 +621,7 @@
     <tableColumn id="3" xr3:uid="{F6B18810-A6BC-43FB-A415-9787ACD54308}" name="CU" totalsRowFunction="sum" dataDxfId="3" dataCellStyle="Number Style"/>
     <tableColumn id="4" xr3:uid="{3D177204-DFF5-4E9F-A8E4-54C102742493}" name="Level" dataDxfId="2" dataCellStyle="Number Style"/>
     <tableColumn id="5" xr3:uid="{42DA8B8C-B4B3-4F37-87E1-5364D1F1AB67}" name="Semester" dataDxfId="1" dataCellStyle="Number Style"/>
-    <tableColumn id="7" xr3:uid="{C5509294-DDE0-4433-BE0E-2F9B2D9F073F}" name="Elective Pair" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Number Style"/>
+    <tableColumn id="7" xr3:uid="{C5509294-DDE0-4433-BE0E-2F9B2D9F073F}" name="Properties" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Number Style"/>
   </tableColumns>
   <tableStyleInfo name="Semester Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -824,121 +924,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483A53F1-3062-48F0-8158-EFF2FBCAC9C2}">
-  <dimension ref="A2:H150"/>
+  <dimension ref="A2:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="49.7890625" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.20703125" customWidth="1"/>
+    <col min="2" max="2" width="49.4140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="7.4140625" customWidth="1"/>
     <col min="5" max="5" width="10.95703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="7.5390625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="2.70703125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="13.20703125" customWidth="1"/>
+    <col min="10" max="10" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="25">
         <v>7</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A4" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="22"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+      <c r="E4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="43">
+        <v>45</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="15"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="29"/>
       <c r="D6" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="30">
         <f>COUNT(Courses[CU])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.65">
+        <v>0</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+      <c r="H7" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A8" s="8"/>
       <c r="B8" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+        <v>14</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="46"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A9" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A10" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+      <c r="H10" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -946,9 +1117,12 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="32"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="H11" s="42"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -962,33 +1136,26 @@
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A13" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="46"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A13" s="9"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="27">
-        <v>2</v>
-      </c>
-      <c r="D13" s="27">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27">
-        <v>1</v>
-      </c>
-      <c r="F13" s="27">
-        <v>0</v>
-      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="28"/>
@@ -998,7 +1165,7 @@
       <c r="G14" s="33"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="28"/>
@@ -1007,7 +1174,7 @@
       <c r="F15" s="28"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="28"/>
@@ -2088,9 +2255,15 @@
       <c r="F150" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="1">
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="7">
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K12"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/static/excel/samples/department_config.xlsx
+++ b/static/excel/samples/department_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODHOPE ORDU\Documents\excel_converter\static\excel\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CF4347-7A27-4A32-BAC6-AC6499867F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15518526-F612-4C2B-B1CD-5FE17FAE070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E4E2A758-F7D2-4D95-B1D3-14046877250E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Course Code</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Global</t>
-  </si>
-  <si>
-    <t>Semester specific</t>
   </si>
 </sst>
 </file>
@@ -332,7 +329,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,9 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -379,12 +373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -400,10 +388,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -411,18 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -437,6 +409,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -457,22 +444,21 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -508,25 +494,16 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -545,7 +522,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -614,14 +590,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{556EEED0-D757-48F1-842F-6D540C0C98B3}" name="Courses" displayName="Courses" ref="A12:F150" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{556EEED0-D757-48F1-842F-6D540C0C98B3}" name="Courses" displayName="Courses" ref="A12:F150" headerRowDxfId="10" dataDxfId="0" totalsRowDxfId="9" dataCellStyle="Number Style">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2B18A659-6CC5-4D60-8714-0F7FAAF6612B}" name="Course Code" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{4C05039F-807A-4C93-9807-A05F1F6DB41F}" name="Course Title" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F6B18810-A6BC-43FB-A415-9787ACD54308}" name="CU" totalsRowFunction="sum" dataDxfId="3" dataCellStyle="Number Style"/>
-    <tableColumn id="4" xr3:uid="{3D177204-DFF5-4E9F-A8E4-54C102742493}" name="Level" dataDxfId="2" dataCellStyle="Number Style"/>
-    <tableColumn id="5" xr3:uid="{42DA8B8C-B4B3-4F37-87E1-5364D1F1AB67}" name="Semester" dataDxfId="1" dataCellStyle="Number Style"/>
-    <tableColumn id="7" xr3:uid="{C5509294-DDE0-4433-BE0E-2F9B2D9F073F}" name="Properties" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Number Style"/>
+    <tableColumn id="1" xr3:uid="{2B18A659-6CC5-4D60-8714-0F7FAAF6612B}" name="Course Code" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4C05039F-807A-4C93-9807-A05F1F6DB41F}" name="Course Title" dataDxfId="5" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F6B18810-A6BC-43FB-A415-9787ACD54308}" name="CU" totalsRowFunction="sum" dataDxfId="4" dataCellStyle="Number Style"/>
+    <tableColumn id="4" xr3:uid="{3D177204-DFF5-4E9F-A8E4-54C102742493}" name="Level" dataDxfId="3" dataCellStyle="Number Style"/>
+    <tableColumn id="5" xr3:uid="{42DA8B8C-B4B3-4F37-87E1-5364D1F1AB67}" name="Semester" dataDxfId="2" dataCellStyle="Number Style"/>
+    <tableColumn id="7" xr3:uid="{C5509294-DDE0-4433-BE0E-2F9B2D9F073F}" name="Properties" totalsRowFunction="sum" dataDxfId="1" dataCellStyle="Number Style"/>
   </tableColumns>
   <tableStyleInfo name="Semester Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -927,18 +903,18 @@
   <dimension ref="A2:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="49.4140625" customWidth="1"/>
+    <col min="2" max="2" width="50.375" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="7.4140625" customWidth="1"/>
+    <col min="4" max="4" width="11.2890625" customWidth="1"/>
     <col min="5" max="5" width="10.95703125" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="2.70703125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="7" max="7" width="2.70703125" style="27" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="13.20703125" customWidth="1"/>
     <col min="10" max="10" width="29.875" customWidth="1"/>
@@ -950,20 +926,20 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="23">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -972,140 +948,140 @@
       <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="43">
-        <v>45</v>
-      </c>
-      <c r="H4" s="39" t="s">
+      <c r="F4" s="35">
+        <v>24</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="30">
+      <c r="E6" s="39"/>
+      <c r="F6" s="26">
         <f>COUNT(Courses[CU])</f>
         <v>0</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="45"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A7" s="8"/>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="46" t="s">
-        <v>34</v>
+      <c r="K7" s="38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A8" s="8"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="46"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="26" t="b">
+      <c r="F9" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="46"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="H10" s="39" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1116,11 +1092,11 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="46"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A12" s="2" t="s">
@@ -1141,1121 +1117,1122 @@
       <c r="F12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="46"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A13" s="9"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
+      <c r="A123" s="43"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
+      <c r="A124" s="43"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
+      <c r="A129" s="43"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
+      <c r="A130" s="43"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
+      <c r="A131" s="43"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
+      <c r="A132" s="43"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
+      <c r="A133" s="43"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
+      <c r="A134" s="43"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
+      <c r="A135" s="43"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
+      <c r="A136" s="43"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
+      <c r="A139" s="43"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
+      <c r="A140" s="43"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
+      <c r="A141" s="43"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
+      <c r="A142" s="43"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
+      <c r="A143" s="43"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
+      <c r="A144" s="43"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
+      <c r="A145" s="43"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
+      <c r="A146" s="43"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
+      <c r="A147" s="43"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
+      <c r="A148" s="43"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
+      <c r="A149" s="43"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="K7:K9"/>

--- a/static/excel/samples/department_config.xlsx
+++ b/static/excel/samples/department_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODHOPE ORDU\Documents\excel_converter\static\excel\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15518526-F612-4C2B-B1CD-5FE17FAE070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA560211-C60E-4290-8C77-7AE6995FA0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E4E2A758-F7D2-4D95-B1D3-14046877250E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Course Code</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Global</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>For courses that are optional (ie. Not part of the regular program)</t>
   </si>
 </sst>
 </file>
@@ -329,7 +335,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -404,6 +410,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -422,8 +431,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -444,21 +469,22 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -494,21 +520,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -522,6 +544,9 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -590,14 +615,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{556EEED0-D757-48F1-842F-6D540C0C98B3}" name="Courses" displayName="Courses" ref="A12:F150" headerRowDxfId="10" dataDxfId="0" totalsRowDxfId="9" dataCellStyle="Number Style">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{556EEED0-D757-48F1-842F-6D540C0C98B3}" name="Courses" displayName="Courses" ref="A12:F150" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Number Style">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2B18A659-6CC5-4D60-8714-0F7FAAF6612B}" name="Course Code" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{4C05039F-807A-4C93-9807-A05F1F6DB41F}" name="Course Title" dataDxfId="5" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F6B18810-A6BC-43FB-A415-9787ACD54308}" name="CU" totalsRowFunction="sum" dataDxfId="4" dataCellStyle="Number Style"/>
-    <tableColumn id="4" xr3:uid="{3D177204-DFF5-4E9F-A8E4-54C102742493}" name="Level" dataDxfId="3" dataCellStyle="Number Style"/>
-    <tableColumn id="5" xr3:uid="{42DA8B8C-B4B3-4F37-87E1-5364D1F1AB67}" name="Semester" dataDxfId="2" dataCellStyle="Number Style"/>
-    <tableColumn id="7" xr3:uid="{C5509294-DDE0-4433-BE0E-2F9B2D9F073F}" name="Properties" totalsRowFunction="sum" dataDxfId="1" dataCellStyle="Number Style"/>
+    <tableColumn id="1" xr3:uid="{2B18A659-6CC5-4D60-8714-0F7FAAF6612B}" name="Course Code" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4C05039F-807A-4C93-9807-A05F1F6DB41F}" name="Course Title" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F6B18810-A6BC-43FB-A415-9787ACD54308}" name="CU" totalsRowFunction="sum" dataDxfId="3" dataCellStyle="Number Style"/>
+    <tableColumn id="4" xr3:uid="{3D177204-DFF5-4E9F-A8E4-54C102742493}" name="Level" dataDxfId="2" dataCellStyle="Number Style"/>
+    <tableColumn id="5" xr3:uid="{42DA8B8C-B4B3-4F37-87E1-5364D1F1AB67}" name="Semester" dataDxfId="1" dataCellStyle="Number Style"/>
+    <tableColumn id="7" xr3:uid="{C5509294-DDE0-4433-BE0E-2F9B2D9F073F}" name="Properties" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Number Style"/>
   </tableColumns>
   <tableStyleInfo name="Semester Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -959,11 +984,11 @@
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
@@ -976,10 +1001,10 @@
       <c r="I4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -987,15 +1012,15 @@
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="14"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="15"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="37"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A6" s="16" t="s">
@@ -1003,18 +1028,18 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="26">
         <f>COUNT(Courses[CU])</f>
         <v>0</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="37"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A7" s="8"/>
@@ -1024,10 +1049,10 @@
       <c r="I7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="39" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1038,8 +1063,8 @@
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="38"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A9" s="9" t="s">
@@ -1058,8 +1083,8 @@
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="38"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.7">
       <c r="A10" s="16" t="s">
@@ -1078,10 +1103,10 @@
       <c r="I10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="39" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1095,8 +1120,8 @@
       <c r="G11" s="28"/>
       <c r="H11" s="34"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="38"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A12" s="2" t="s">
@@ -1120,1112 +1145,1130 @@
       <c r="G12" s="29"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="38"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A13" s="43"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="3"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="29"/>
+      <c r="H13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="24"/>
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="24"/>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="24"/>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="24"/>
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="24"/>
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A101" s="43"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A102" s="43"/>
-      <c r="B102" s="43"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24"/>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A103" s="43"/>
-      <c r="B103" s="43"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24"/>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24"/>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A105" s="43"/>
-      <c r="B105" s="43"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
       <c r="F105" s="24"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A106" s="43"/>
-      <c r="B106" s="43"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A107" s="43"/>
-      <c r="B107" s="43"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A108" s="43"/>
-      <c r="B108" s="43"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24"/>
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A109" s="43"/>
-      <c r="B109" s="43"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="37"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
       <c r="E109" s="24"/>
       <c r="F109" s="24"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A110" s="43"/>
-      <c r="B110" s="43"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
       <c r="E110" s="24"/>
       <c r="F110" s="24"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A111" s="43"/>
-      <c r="B111" s="43"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A112" s="43"/>
-      <c r="B112" s="43"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
       <c r="E112" s="24"/>
       <c r="F112" s="24"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A113" s="43"/>
-      <c r="B113" s="43"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="24"/>
       <c r="D113" s="24"/>
       <c r="E113" s="24"/>
       <c r="F113" s="24"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A114" s="43"/>
-      <c r="B114" s="43"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
       <c r="E114" s="24"/>
       <c r="F114" s="24"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A115" s="43"/>
-      <c r="B115" s="43"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="24"/>
       <c r="D115" s="24"/>
       <c r="E115" s="24"/>
       <c r="F115" s="24"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A116" s="43"/>
-      <c r="B116" s="43"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="37"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A117" s="43"/>
-      <c r="B117" s="43"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="37"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
       <c r="F117" s="24"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A118" s="43"/>
-      <c r="B118" s="43"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="37"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
       <c r="F118" s="24"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A119" s="43"/>
-      <c r="B119" s="43"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="37"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A120" s="43"/>
-      <c r="B120" s="43"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="37"/>
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
       <c r="E120" s="24"/>
       <c r="F120" s="24"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A121" s="43"/>
-      <c r="B121" s="43"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="37"/>
       <c r="C121" s="24"/>
       <c r="D121" s="24"/>
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A122" s="43"/>
-      <c r="B122" s="43"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="37"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
       <c r="E122" s="24"/>
       <c r="F122" s="24"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A123" s="43"/>
-      <c r="B123" s="43"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
       <c r="E123" s="24"/>
       <c r="F123" s="24"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A124" s="43"/>
-      <c r="B124" s="43"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
       <c r="E124" s="24"/>
       <c r="F124" s="24"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A125" s="43"/>
-      <c r="B125" s="43"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
       <c r="E125" s="24"/>
       <c r="F125" s="24"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A126" s="43"/>
-      <c r="B126" s="43"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="24"/>
       <c r="D126" s="24"/>
       <c r="E126" s="24"/>
       <c r="F126" s="24"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A127" s="43"/>
-      <c r="B127" s="43"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="37"/>
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
       <c r="E127" s="24"/>
       <c r="F127" s="24"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A128" s="43"/>
-      <c r="B128" s="43"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
       <c r="E128" s="24"/>
       <c r="F128" s="24"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A129" s="43"/>
-      <c r="B129" s="43"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="37"/>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
       <c r="E129" s="24"/>
       <c r="F129" s="24"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A130" s="43"/>
-      <c r="B130" s="43"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="37"/>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
       <c r="E130" s="24"/>
       <c r="F130" s="24"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A131" s="43"/>
-      <c r="B131" s="43"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="37"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
       <c r="E131" s="24"/>
       <c r="F131" s="24"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A132" s="43"/>
-      <c r="B132" s="43"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="37"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
       <c r="E132" s="24"/>
       <c r="F132" s="24"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A133" s="43"/>
-      <c r="B133" s="43"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="37"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
       <c r="E133" s="24"/>
       <c r="F133" s="24"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A134" s="43"/>
-      <c r="B134" s="43"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="37"/>
       <c r="C134" s="24"/>
       <c r="D134" s="24"/>
       <c r="E134" s="24"/>
       <c r="F134" s="24"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A135" s="43"/>
-      <c r="B135" s="43"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="37"/>
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
       <c r="E135" s="24"/>
       <c r="F135" s="24"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A136" s="43"/>
-      <c r="B136" s="43"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="37"/>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
       <c r="E136" s="24"/>
       <c r="F136" s="24"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="37"/>
       <c r="C137" s="24"/>
       <c r="D137" s="24"/>
       <c r="E137" s="24"/>
       <c r="F137" s="24"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="37"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24"/>
       <c r="E138" s="24"/>
       <c r="F138" s="24"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A139" s="43"/>
-      <c r="B139" s="43"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="37"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
       <c r="E139" s="24"/>
       <c r="F139" s="24"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A140" s="43"/>
-      <c r="B140" s="43"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="37"/>
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
       <c r="E140" s="24"/>
       <c r="F140" s="24"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A141" s="43"/>
-      <c r="B141" s="43"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="37"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
       <c r="E141" s="24"/>
       <c r="F141" s="24"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A142" s="43"/>
-      <c r="B142" s="43"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="37"/>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
       <c r="E142" s="24"/>
       <c r="F142" s="24"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A143" s="43"/>
-      <c r="B143" s="43"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="37"/>
       <c r="C143" s="24"/>
       <c r="D143" s="24"/>
       <c r="E143" s="24"/>
       <c r="F143" s="24"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A144" s="43"/>
-      <c r="B144" s="43"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="37"/>
       <c r="C144" s="24"/>
       <c r="D144" s="24"/>
       <c r="E144" s="24"/>
       <c r="F144" s="24"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A145" s="43"/>
-      <c r="B145" s="43"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="37"/>
       <c r="C145" s="24"/>
       <c r="D145" s="24"/>
       <c r="E145" s="24"/>
       <c r="F145" s="24"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A146" s="43"/>
-      <c r="B146" s="43"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="24"/>
       <c r="D146" s="24"/>
       <c r="E146" s="24"/>
       <c r="F146" s="24"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A147" s="43"/>
-      <c r="B147" s="43"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="37"/>
       <c r="C147" s="24"/>
       <c r="D147" s="24"/>
       <c r="E147" s="24"/>
       <c r="F147" s="24"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A148" s="43"/>
-      <c r="B148" s="43"/>
+      <c r="A148" s="37"/>
+      <c r="B148" s="37"/>
       <c r="C148" s="24"/>
       <c r="D148" s="24"/>
       <c r="E148" s="24"/>
       <c r="F148" s="24"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A149" s="43"/>
-      <c r="B149" s="43"/>
+      <c r="A149" s="37"/>
+      <c r="B149" s="37"/>
       <c r="C149" s="24"/>
       <c r="D149" s="24"/>
       <c r="E149" s="24"/>
       <c r="F149" s="24"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A150" s="43"/>
-      <c r="B150" s="43"/>
+      <c r="A150" s="37"/>
+      <c r="B150" s="37"/>
       <c r="C150" s="24"/>
       <c r="D150" s="24"/>
       <c r="E150" s="24"/>
@@ -2233,7 +2276,9 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="K10:K12"/>
